--- a/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -377,7 +377,7 @@
     <t>35000mAh</t>
   </si>
   <si>
-    <t>Last Updated on: 03/11/2021</t>
+    <t>Last Updated on: 16/11/2021</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -734,9 +734,6 @@
     <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,9 +767,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,7 +782,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3188,8 +3182,8 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3205,37 +3199,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>112</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="27"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3336,8 +3330,12 @@
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="7">
+        <v>1100</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1190</v>
+      </c>
       <c r="E8" s="19" t="s">
         <v>17</v>
       </c>
@@ -3878,13 +3876,13 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
@@ -4186,43 +4184,43 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="35" t="s">
+      <c r="B46" s="29"/>
+      <c r="C46" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35" t="s">
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="35"/>
+      <c r="G46" s="34"/>
     </row>
     <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
   </sheetData>
   <sortState ref="A29:H53">
     <sortCondition ref="A29"/>
   </sortState>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A48:G48"/>
     <mergeCell ref="A46:B47"/>
     <mergeCell ref="A1:G1"/>
@@ -4230,8 +4228,7 @@
     <mergeCell ref="C46:E47"/>
     <mergeCell ref="F46:G47"/>
     <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4261,28 +4258,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">

--- a/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -377,7 +377,7 @@
     <t>35000mAh</t>
   </si>
   <si>
-    <t>Last Updated on: 16/11/2021</t>
+    <t>Last Updated on: 18/11/2021</t>
   </si>
 </sst>
 </file>
@@ -773,6 +773,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,9 +783,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3182,8 +3182,8 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3229,7 +3229,7 @@
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
-      <c r="G3" s="43"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -4258,28 +4258,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">

--- a/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -377,7 +377,7 @@
     <t>35000mAh</t>
   </si>
   <si>
-    <t>Last Updated on: 18/11/2021</t>
+    <t>Last Updated on: 27/11/2021</t>
   </si>
 </sst>
 </file>
@@ -3182,8 +3182,8 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L47" sqref="L47"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Symphony" sheetId="3" r:id="rId1"/>
-    <sheet name="realme" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="realme" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Symphony!$A$4:$G$4</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="114">
   <si>
     <t>Model Name</t>
   </si>
@@ -132,12 +133,6 @@
   </si>
   <si>
     <t>13MP+5MP</t>
-  </si>
-  <si>
-    <t>5.77"</t>
-  </si>
-  <si>
-    <t>5MP+8MP</t>
   </si>
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
@@ -290,9 +285,6 @@
     <t>ATOM_2  (2GB+32GB)</t>
   </si>
   <si>
-    <t>i67  (2GB+16GB)</t>
-  </si>
-  <si>
     <t xml:space="preserve">13MP+2MP+2MP+8MP   </t>
   </si>
   <si>
@@ -377,7 +369,19 @@
     <t>35000mAh</t>
   </si>
   <si>
-    <t>Last Updated on: 27/11/2021</t>
+    <t>B62</t>
+  </si>
+  <si>
+    <t>dfghj</t>
+  </si>
+  <si>
+    <t>ertjut</t>
+  </si>
+  <si>
+    <t>Z22</t>
+  </si>
+  <si>
+    <t>Last Updated on: 04/12/2021</t>
   </si>
 </sst>
 </file>
@@ -662,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -785,6 +789,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -809,13 +816,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>204721</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>41124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>387219</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>91626</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -833,7 +840,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="204721" y="10432899"/>
+          <a:off x="204721" y="10661499"/>
           <a:ext cx="4754498" cy="260052"/>
           <a:chOff x="249" y="249"/>
           <a:chExt cx="272" cy="258"/>
@@ -3179,11 +3186,11 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,7 +3207,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -3211,7 +3218,7 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -3222,7 +3229,7 @@
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -3233,7 +3240,7 @@
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -3277,41 +3284,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7">
-        <v>970</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1050</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>19</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C7" s="7">
-        <v>1020</v>
+        <v>970</v>
       </c>
       <c r="D7" s="7">
-        <v>1099</v>
+        <v>1050</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>17</v>
@@ -3328,19 +3325,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C8" s="7">
-        <v>1100</v>
+        <v>980</v>
       </c>
       <c r="D8" s="7">
-        <v>1190</v>
+        <v>1070</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>19</v>
@@ -3351,19 +3348,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="7">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="D9" s="7">
-        <v>1250</v>
+        <v>1190</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>19</v>
@@ -3374,13 +3371,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="C10" s="7">
-        <v>1060</v>
+        <v>1160</v>
       </c>
       <c r="D10" s="7">
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>17</v>
@@ -3397,19 +3394,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C11" s="7">
-        <v>1210</v>
+        <v>1060</v>
       </c>
       <c r="D11" s="7">
-        <v>1290</v>
+        <v>1150</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>19</v>
@@ -3420,10 +3417,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7">
-        <v>1200</v>
+        <v>1210</v>
       </c>
       <c r="D12" s="7">
         <v>1290</v>
@@ -3432,7 +3429,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>19</v>
@@ -3443,13 +3440,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="C13" s="7">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="D13" s="7">
-        <v>1350</v>
+        <v>1290</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>23</v>
@@ -3469,19 +3466,19 @@
         <v>86</v>
       </c>
       <c r="C14" s="7">
-        <v>1460</v>
+        <v>1250</v>
       </c>
       <c r="D14" s="7">
-        <v>1570</v>
+        <v>1350</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3489,13 +3486,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C15" s="7">
-        <v>1130</v>
+        <v>1460</v>
       </c>
       <c r="D15" s="7">
-        <v>1199</v>
+        <v>1570</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>23</v>
@@ -3504,7 +3501,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3512,13 +3509,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="C16" s="7">
-        <v>1190</v>
+        <v>1130</v>
       </c>
       <c r="D16" s="7">
-        <v>1290</v>
+        <v>1199</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>23</v>
@@ -3535,13 +3532,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C17" s="7">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="D17" s="7">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>23</v>
@@ -3553,18 +3550,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>14</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C18" s="7">
-        <v>1095</v>
+        <v>1200</v>
       </c>
       <c r="D18" s="7">
-        <v>1170</v>
+        <v>1299</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>23</v>
@@ -3581,39 +3578,39 @@
         <v>15</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1260</v>
+        <v>1140</v>
       </c>
       <c r="D19" s="7">
-        <v>1360</v>
+        <v>1240</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>16</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C20" s="7">
-        <v>1210</v>
+        <v>1260</v>
       </c>
       <c r="D20" s="7">
-        <v>1299</v>
+        <v>1360</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>22</v>
@@ -3622,18 +3619,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>17</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="C21" s="7">
-        <v>1250</v>
+        <v>1210</v>
       </c>
       <c r="D21" s="7">
-        <v>1350</v>
+        <v>1299</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>23</v>
@@ -3650,13 +3647,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C22" s="7">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="D22" s="7">
-        <v>1330</v>
+        <v>1350</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>23</v>
@@ -3673,16 +3670,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C23" s="7">
-        <v>1200</v>
+        <v>1240</v>
       </c>
       <c r="D23" s="7">
-        <v>1299</v>
+        <v>1330</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>22</v>
@@ -3691,21 +3688,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>20</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C24" s="7">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="D24" s="7">
-        <v>1340</v>
+        <v>1299</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>22</v>
@@ -3719,13 +3716,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7">
-        <v>1280</v>
+        <v>1250</v>
       </c>
       <c r="D25" s="7">
-        <v>1380</v>
+        <v>1340</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>23</v>
@@ -3742,19 +3739,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="C26" s="7">
-        <v>1300</v>
+        <v>1280</v>
       </c>
       <c r="D26" s="7">
-        <v>1399</v>
+        <v>1380</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>19</v>
@@ -3765,19 +3762,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="6">
-        <v>1340</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1430</v>
+        <v>85</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1300</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1399</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>19</v>
@@ -3788,19 +3785,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1400</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1499</v>
+        <v>39</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1340</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1430</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>19</v>
@@ -3811,19 +3808,19 @@
         <v>25</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C29" s="7">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="D29" s="7">
-        <v>1540</v>
+        <v>1499</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>19</v>
@@ -3834,19 +3831,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="C30" s="7">
-        <v>1430</v>
+        <v>1440</v>
       </c>
       <c r="D30" s="7">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>19</v>
@@ -3857,206 +3854,206 @@
         <v>27</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="C31" s="7">
-        <v>1330</v>
+        <v>1430</v>
       </c>
       <c r="D31" s="7">
-        <v>1420</v>
+        <v>1550</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
+      <c r="A32" s="19">
+        <v>28</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1330</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1420</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
-        <v>1</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="7">
-        <v>7430</v>
-      </c>
-      <c r="D33" s="7">
-        <v>7990</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
-        <v>2</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="7">
-        <v>7240</v>
-      </c>
-      <c r="D34" s="7">
-        <v>7790</v>
-      </c>
-      <c r="E34" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="24">
+        <v>8300</v>
+      </c>
+      <c r="D34" s="24">
+        <v>8790</v>
+      </c>
+      <c r="E34" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>30</v>
+      <c r="F34" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C35" s="7">
-        <v>4840</v>
+        <v>7430</v>
       </c>
       <c r="D35" s="7">
-        <v>5190</v>
+        <v>7990</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C36" s="7">
-        <v>5290</v>
+        <v>7240</v>
       </c>
       <c r="D36" s="7">
-        <v>5690</v>
+        <v>7790</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C37" s="7">
-        <v>5750</v>
+        <v>4840</v>
       </c>
       <c r="D37" s="7">
-        <v>6190</v>
+        <v>5190</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C38" s="7">
-        <v>6500</v>
+        <v>5290</v>
       </c>
       <c r="D38" s="7">
-        <v>6990</v>
+        <v>5690</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C39" s="7">
-        <v>7430</v>
+        <v>6500</v>
       </c>
       <c r="D39" s="7">
-        <v>7990</v>
+        <v>6990</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C40" s="7">
-        <v>9300</v>
+        <v>7430</v>
       </c>
       <c r="D40" s="7">
-        <v>9790</v>
+        <v>7990</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>31</v>
@@ -4065,176 +4062,189 @@
         <v>32</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
-        <v>9</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="7">
-        <v>10130</v>
-      </c>
-      <c r="D41" s="7">
-        <v>10890</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>35</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
-        <v>10</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="24">
-        <v>8300</v>
-      </c>
-      <c r="D42" s="24">
-        <v>8790</v>
-      </c>
-      <c r="E42" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="7">
+        <v>9300</v>
+      </c>
+      <c r="D42" s="7">
+        <v>9790</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C43" s="7">
-        <v>9290</v>
+        <v>10130</v>
       </c>
       <c r="D43" s="7">
-        <v>9990</v>
+        <v>10890</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="7">
-        <v>10230</v>
+        <v>9290</v>
       </c>
       <c r="D44" s="7">
-        <v>10990</v>
+        <v>9990</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
+        <v>12</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="7">
+        <v>10230</v>
+      </c>
+      <c r="D45" s="7">
+        <v>10990</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19">
         <v>13</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="7">
+      <c r="B46" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="7">
         <v>9290</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D46" s="7">
         <v>9990</v>
       </c>
-      <c r="E45" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" s="5" t="s">
+      <c r="E46" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34" t="s">
+      <c r="G46" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="34"/>
     </row>
     <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="34"/>
+      <c r="A47" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="34" t="s">
+        <v>95</v>
+      </c>
       <c r="D47" s="34"/>
       <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
+      <c r="F47" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="G47" s="34"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
     </row>
   </sheetData>
-  <sortState ref="A29:H53">
-    <sortCondition ref="A29"/>
+  <sortState ref="B34:G46">
+    <sortCondition ref="B34"/>
   </sortState>
   <mergeCells count="8">
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A47:B48"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C46:E47"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="C47:E48"/>
+    <mergeCell ref="F47:G48"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="91" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A46" numberStoredAsText="1"/>
+    <ignoredError sqref="A47" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4242,10 +4252,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4259,7 +4289,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -4267,7 +4297,7 @@
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -4275,7 +4305,7 @@
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -4283,21 +4313,21 @@
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -4307,7 +4337,7 @@
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -4317,10 +4347,10 @@
     </row>
     <row r="7" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="11">
         <v>14540</v>
@@ -4331,10 +4361,10 @@
     </row>
     <row r="8" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="11">
         <v>8490</v>
@@ -4343,13 +4373,16 @@
         <f>8990+4000</f>
         <v>12990</v>
       </c>
+      <c r="H8" s="13" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="11">
         <v>10320</v>
@@ -4361,10 +4394,10 @@
     </row>
     <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="11">
         <v>11200</v>
@@ -4377,10 +4410,10 @@
     </row>
     <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="11">
         <v>13070</v>
@@ -4393,10 +4426,10 @@
     </row>
     <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="11">
         <v>13990</v>
@@ -4421,10 +4454,10 @@
     </row>
     <row r="15" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="11">
         <v>21270</v>
@@ -4433,10 +4466,10 @@
     </row>
     <row r="16" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="11">
         <v>25890</v>
@@ -4449,10 +4482,10 @@
     </row>
     <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="11">
         <v>12240</v>

--- a/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -738,6 +738,9 @@
     <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,9 +791,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3190,7 +3190,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,37 +3206,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3896,13 +3896,13 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
@@ -4069,7 +4069,7 @@
       <c r="A41" s="19">
         <v>8</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="27" t="s">
         <v>112</v>
       </c>
       <c r="C41" s="7"/>
@@ -4194,37 +4194,37 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="34" t="s">
+      <c r="B47" s="30"/>
+      <c r="C47" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34" t="s">
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G47" s="34"/>
+      <c r="G47" s="35"/>
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
     </row>
   </sheetData>
   <sortState ref="B34:G46">
@@ -4288,28 +4288,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">

--- a/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Symphony" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="realme" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Symphony!$A$4:$G$4</definedName>
@@ -19,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="89">
   <si>
     <t>Model Name</t>
   </si>
@@ -168,99 +166,9 @@
     <t>13MP+2MP+2MP+8MP</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Spec</t>
-  </si>
-  <si>
-    <t>MRP (TK.)</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>5000mAh 6.5" IPS LCD Display, 720x1560 pixels, Helio G35 Gaming Processor, 13/2 MP+5MP, Android 10, Realme UI</t>
-  </si>
-  <si>
-    <t>6000mAh Battery,  6.5"HD+ Mini-drop Fullscreen 720x1560 pixels, Helio G35 Gaming Processor, 13/2/2 MP+5MP, Android 10, Realme UI</t>
-  </si>
-  <si>
-    <t>C17 (6GB+128GB)</t>
-  </si>
-  <si>
-    <t>5000mAh Battery 6.5'', 720*1600 Pixels HD+Display, Snapdragon 460 Processor, 13/8/2/2 MP+8MP, Android 10, Realme UI</t>
-  </si>
-  <si>
-    <t>C21 (4GB+64GB)</t>
-  </si>
-  <si>
-    <t>5000mAh Battery 6.5'', 720*1600 Pixels HD+Display,Helio G35 Gaming Processor, 13/2/2 MP+5MP, Android 10, Realme UI</t>
-  </si>
-  <si>
-    <t>8Pro (8GB+128GB)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4500mAh Battery, 6.4'' Super AMOLED Display, Snapdragon 720G Processor (8nm), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>108 MP/8/2/2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +16MP, Android 11, Realme UI 2.0</t>
-    </r>
-  </si>
-  <si>
-    <t>Narzo 30A (4GB+64GB)</t>
-  </si>
-  <si>
-    <t>6000mAh Battery 6.5'', 720*1600 Pixels HD+Display, Helio G85 Gaming Processor, 13/2 MP+8MP, Android 10, Realme UI</t>
-  </si>
-  <si>
-    <t>8 (8GB+128GB)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SN </t>
   </si>
   <si>
-    <t>C20A(2GB+32GB)</t>
-  </si>
-  <si>
-    <t>C21(3GB+32GB)</t>
-  </si>
-  <si>
-    <t>C25 (4GB+64GB)</t>
-  </si>
-  <si>
-    <t>C25 (4GB+128GB)</t>
-  </si>
-  <si>
-    <t>Realme Price List (Last Update 03-05-2021)</t>
-  </si>
-  <si>
-    <t>Mugdho Corporation</t>
-  </si>
-  <si>
-    <t>Abdullah Plaza(1st floor), Komola Super Market, Alaipur, Natore.</t>
-  </si>
-  <si>
     <t>Z35  (3GB+32GB)</t>
   </si>
   <si>
@@ -372,16 +280,10 @@
     <t>B62</t>
   </si>
   <si>
-    <t>dfghj</t>
-  </si>
-  <si>
-    <t>ertjut</t>
-  </si>
-  <si>
-    <t>Z22</t>
-  </si>
-  <si>
-    <t>Last Updated on: 04/12/2021</t>
+    <t>Last Updated on: 06/12/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Z22</t>
   </si>
 </sst>
 </file>
@@ -392,7 +294,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,41 +360,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="15"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -507,7 +375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,18 +396,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -616,15 +478,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -666,11 +519,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,25 +539,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,16 +557,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,10 +590,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -771,25 +605,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2835,61 +2657,6 @@
         </xdr:spPr>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>33368</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2486025" y="28575"/>
-          <a:ext cx="0" cy="366743"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3189,1042 +2956,1042 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="3.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1080</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>970</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1050</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="6">
+        <v>980</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1070</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1100</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1190</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1160</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1250</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1060</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1150</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1210</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1290</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1290</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1250</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1350</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1460</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1570</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1130</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1199</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1190</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1290</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1299</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>15</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1140</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1240</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>16</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1260</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1360</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>17</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1210</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1299</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>18</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1250</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1350</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>19</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1240</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1330</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>20</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1299</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>21</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1250</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1340</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>22</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1280</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1380</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>23</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1300</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1399</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>24</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1340</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1430</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>25</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1400</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1499</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>26</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1440</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1540</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>27</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1430</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1550</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>28</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1330</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1420</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>1</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="14">
+        <v>8300</v>
+      </c>
+      <c r="D34" s="14">
+        <v>8790</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>2</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="6">
+        <v>7430</v>
+      </c>
+      <c r="D35" s="6">
+        <v>7990</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>3</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="6">
+        <v>7240</v>
+      </c>
+      <c r="D36" s="6">
+        <v>7790</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>4</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="6">
+        <v>4840</v>
+      </c>
+      <c r="D37" s="6">
+        <v>5190</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>5</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="6">
+        <v>5290</v>
+      </c>
+      <c r="D38" s="6">
+        <v>5690</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>6</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="6">
+        <v>6500</v>
+      </c>
+      <c r="D39" s="6">
+        <v>6990</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>7</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="6">
+        <v>7430</v>
+      </c>
+      <c r="D40" s="6">
+        <v>7990</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>8</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:7" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>1</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1080</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>2</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>3</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7">
-        <v>970</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1050</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>4</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="7">
-        <v>980</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1070</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>5</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1100</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1190</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>6</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1160</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1250</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>7</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1060</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1150</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>8</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1210</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1290</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1200</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1290</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="B42" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="6">
+        <v>9300</v>
+      </c>
+      <c r="D42" s="6">
+        <v>9790</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1250</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1350</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="B43" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="6">
+        <v>10130</v>
+      </c>
+      <c r="D43" s="6">
+        <v>10890</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1460</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1570</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="B44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="6">
+        <v>9290</v>
+      </c>
+      <c r="D44" s="6">
+        <v>9990</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>12</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1130</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1199</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="B45" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="6">
+        <v>10230</v>
+      </c>
+      <c r="D45" s="6">
+        <v>10990</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1190</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1290</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>14</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1200</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1299</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>15</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1140</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1240</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>16</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1260</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1360</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
-        <v>17</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1210</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1299</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
-        <v>18</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1250</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1350</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <v>19</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1240</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1330</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
-        <v>20</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1200</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1299</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
-        <v>21</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1250</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1340</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
-        <v>22</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1280</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1380</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <v>23</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1300</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1399</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
-        <v>24</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1340</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1430</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
-        <v>25</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1400</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1499</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
-        <v>26</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1440</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1540</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
-        <v>27</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1430</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1550</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
-        <v>28</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1330</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1420</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-    </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
-        <v>1</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="24">
-        <v>8300</v>
-      </c>
-      <c r="D34" s="24">
-        <v>8790</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="26" t="s">
+      <c r="B46" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="6">
+        <v>9290</v>
+      </c>
+      <c r="D46" s="6">
+        <v>9990</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
-        <v>2</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="7">
-        <v>7430</v>
-      </c>
-      <c r="D35" s="7">
-        <v>7990</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
-        <v>3</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="7">
-        <v>7240</v>
-      </c>
-      <c r="D36" s="7">
-        <v>7790</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
-        <v>4</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="7">
-        <v>4840</v>
-      </c>
-      <c r="D37" s="7">
-        <v>5190</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
-        <v>5</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="7">
-        <v>5290</v>
-      </c>
-      <c r="D38" s="7">
-        <v>5690</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
-        <v>6</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="7">
-        <v>6500</v>
-      </c>
-      <c r="D39" s="7">
-        <v>6990</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
-        <v>7</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="7">
-        <v>7430</v>
-      </c>
-      <c r="D40" s="7">
-        <v>7990</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
-        <v>8</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="19"/>
-    </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
-        <v>9</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="7">
-        <v>9300</v>
-      </c>
-      <c r="D42" s="7">
-        <v>9790</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
-        <v>10</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="7">
-        <v>10130</v>
-      </c>
-      <c r="D43" s="7">
-        <v>10890</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
-        <v>11</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="7">
-        <v>9290</v>
-      </c>
-      <c r="D44" s="7">
-        <v>9990</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
-        <v>12</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="7">
-        <v>10230</v>
-      </c>
-      <c r="D45" s="7">
-        <v>10990</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
-        <v>13</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="7">
-        <v>9290</v>
-      </c>
-      <c r="D46" s="7">
-        <v>9990</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35" t="s">
+      <c r="A47" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G47" s="35"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
     </row>
   </sheetData>
   <sortState ref="B34:G46">
@@ -4248,275 +4015,4 @@
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="8" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-    </row>
-    <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10">
-        <v>8990</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10">
-        <v>10990</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="11">
-        <v>14540</v>
-      </c>
-      <c r="D7" s="10">
-        <v>15490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="11">
-        <v>8490</v>
-      </c>
-      <c r="D8" s="10">
-        <f>8990+4000</f>
-        <v>12990</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="11">
-        <v>10320</v>
-      </c>
-      <c r="D9" s="10">
-        <f>10990+4000</f>
-        <v>14990</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="11">
-        <v>11200</v>
-      </c>
-      <c r="D10" s="10">
-        <f>11990+4000</f>
-        <v>15990</v>
-      </c>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="11">
-        <v>13070</v>
-      </c>
-      <c r="D11" s="10">
-        <f>11990+4000</f>
-        <v>15990</v>
-      </c>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="11">
-        <v>13990</v>
-      </c>
-      <c r="D12" s="10">
-        <f>11990+4000</f>
-        <v>15990</v>
-      </c>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="11">
-        <v>21270</v>
-      </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="11">
-        <v>25890</v>
-      </c>
-      <c r="D16" s="10">
-        <f>27990+4000</f>
-        <v>31990</v>
-      </c>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="11">
-        <v>12240</v>
-      </c>
-      <c r="D17" s="10">
-        <f>12990+4000</f>
-        <v>16990</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -280,10 +280,10 @@
     <t>B62</t>
   </si>
   <si>
-    <t>Last Updated on: 06/12/2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Z22</t>
+  </si>
+  <si>
+    <t>Last Updated on: 07/12/2021</t>
   </si>
 </sst>
 </file>
@@ -2956,8 +2956,8 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -3837,7 +3837,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>

--- a/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -2956,8 +2956,8 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
   <si>
     <t>Model Name</t>
   </si>
@@ -280,10 +280,10 @@
     <t>B62</t>
   </si>
   <si>
-    <t xml:space="preserve">      Z22</t>
-  </si>
-  <si>
-    <t>Last Updated on: 07/12/2021</t>
+    <t>Last Updated on: 26/12/2021</t>
+  </si>
+  <si>
+    <t>Z22  (2GB+32GB)</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,9 +568,6 @@
     </xf>
     <xf numFmtId="43" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2956,8 +2953,8 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2973,37 +2970,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
+      <c r="A3" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3663,13 +3660,13 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
@@ -3836,14 +3833,24 @@
       <c r="A41" s="9">
         <v>8</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="9"/>
+      <c r="B41" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="6">
+        <v>7700</v>
+      </c>
+      <c r="D41" s="6">
+        <v>7290</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
@@ -3961,37 +3968,37 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="25" t="s">
+      <c r="B47" s="19"/>
+      <c r="C47" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25" t="s">
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G47" s="25"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
     </row>
   </sheetData>
   <sortState ref="B34:G46">

--- a/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -280,10 +280,10 @@
     <t>B62</t>
   </si>
   <si>
-    <t>Last Updated on: 26/12/2021</t>
-  </si>
-  <si>
     <t>Z22  (2GB+32GB)</t>
+  </si>
+  <si>
+    <t>Last Updated on: 15/12/2021</t>
   </si>
 </sst>
 </file>
@@ -2953,8 +2953,8 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -3138,10 +3138,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="6">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="D10" s="6">
-        <v>1250</v>
+        <v>1190</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>17</v>
@@ -3834,7 +3834,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="6">
         <v>7700</v>
